--- a/data/pca/factorExposure/factorExposure_2019-03-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-03-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +729,103 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.1233546108369698</v>
+        <v>0.07769022594568714</v>
       </c>
       <c r="C2">
-        <v>-0.002484713127059431</v>
+        <v>-0.03541714422223285</v>
       </c>
       <c r="D2">
-        <v>0.04955649440492801</v>
+        <v>-0.01198440121168586</v>
       </c>
       <c r="E2">
-        <v>-0.1182891543609196</v>
+        <v>-0.04006961993037177</v>
       </c>
       <c r="F2">
-        <v>-0.1049684841179538</v>
+        <v>-0.1405776348441418</v>
       </c>
       <c r="G2">
-        <v>0.01732746447810395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.1032983673504445</v>
+      </c>
+      <c r="H2">
+        <v>0.05660084520054893</v>
+      </c>
+      <c r="I2">
+        <v>-0.03419273286818458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2235104042929305</v>
+        <v>0.1687389249744109</v>
       </c>
       <c r="C3">
-        <v>0.1173770186531973</v>
+        <v>-0.08838561581209485</v>
       </c>
       <c r="D3">
-        <v>-0.03686099539238968</v>
+        <v>0.03663595260584031</v>
       </c>
       <c r="E3">
-        <v>-0.3314537019530866</v>
+        <v>0.01317321909267754</v>
       </c>
       <c r="F3">
-        <v>-0.02005693312007706</v>
+        <v>-0.374126577970275</v>
       </c>
       <c r="G3">
-        <v>0.1034706655567709</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.08822423220185742</v>
+      </c>
+      <c r="H3">
+        <v>0.2762156883898799</v>
+      </c>
+      <c r="I3">
+        <v>-0.1984663515422059</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09761490341612462</v>
+        <v>0.07553743168425356</v>
       </c>
       <c r="C4">
-        <v>0.0344363344969388</v>
+        <v>-0.03518492737395244</v>
       </c>
       <c r="D4">
-        <v>0.02595868525494331</v>
+        <v>0.02827898156738686</v>
       </c>
       <c r="E4">
-        <v>-0.07644703630684165</v>
+        <v>-0.03588094370138582</v>
       </c>
       <c r="F4">
-        <v>-0.03672547461134695</v>
+        <v>-0.08190913257040962</v>
       </c>
       <c r="G4">
-        <v>0.03589185627221474</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.04654187872236685</v>
+      </c>
+      <c r="H4">
+        <v>0.02497766224010736</v>
+      </c>
+      <c r="I4">
+        <v>-0.03992583681111032</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +845,277 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01790008773310035</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.00812516509194827</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.009666427084531207</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.005315245815409293</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>-0.002417035291685838</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.02130168796135557</v>
+      </c>
+      <c r="H6">
+        <v>0.0008961038917113853</v>
+      </c>
+      <c r="I6">
+        <v>0.01224315769161873</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04212914381280686</v>
+        <v>0.03523134119017605</v>
       </c>
       <c r="C7">
-        <v>0.009234642534002012</v>
+        <v>-0.004402830505156582</v>
       </c>
       <c r="D7">
-        <v>0.03409041078662194</v>
+        <v>0.0401911266746619</v>
       </c>
       <c r="E7">
-        <v>-0.07402664467749068</v>
+        <v>-0.02801541450995083</v>
       </c>
       <c r="F7">
-        <v>0.05341841576371859</v>
+        <v>-0.05575751529082883</v>
       </c>
       <c r="G7">
-        <v>-0.001597424309905005</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.006447809371882666</v>
+      </c>
+      <c r="H7">
+        <v>0.0462238487243238</v>
+      </c>
+      <c r="I7">
+        <v>-0.002152300741243912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.04287378349765172</v>
+        <v>0.03065655127385522</v>
       </c>
       <c r="C8">
-        <v>0.04614234164468698</v>
+        <v>-0.03977030492763245</v>
       </c>
       <c r="D8">
-        <v>0.005703125697255998</v>
+        <v>0.03002239611113244</v>
       </c>
       <c r="E8">
-        <v>-0.06953141463642605</v>
+        <v>-0.01653129020456654</v>
       </c>
       <c r="F8">
-        <v>-0.007448860497029636</v>
+        <v>-0.07306955922737662</v>
       </c>
       <c r="G8">
-        <v>0.01766489538531339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.02197620829638176</v>
+      </c>
+      <c r="H8">
+        <v>0.04603957162689655</v>
+      </c>
+      <c r="I8">
+        <v>-0.04142664631248966</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08439812719789012</v>
+        <v>0.06253221099635231</v>
       </c>
       <c r="C9">
-        <v>0.03352719635997797</v>
+        <v>-0.03116446037048637</v>
       </c>
       <c r="D9">
-        <v>0.03438490856051555</v>
+        <v>0.03179340227822332</v>
       </c>
       <c r="E9">
-        <v>-0.05959583814485721</v>
+        <v>-0.03208880438451196</v>
       </c>
       <c r="F9">
-        <v>-0.02519064134800809</v>
+        <v>-0.08203074830505243</v>
       </c>
       <c r="G9">
-        <v>0.05227383662053799</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04275812887095217</v>
+      </c>
+      <c r="H9">
+        <v>0.02179005660916288</v>
+      </c>
+      <c r="I9">
+        <v>-0.02014464273227284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.003419989004442351</v>
+        <v>0.02065014072605817</v>
       </c>
       <c r="C10">
-        <v>-0.155800535120956</v>
+        <v>0.1408414679730478</v>
       </c>
       <c r="D10">
-        <v>-0.02730537108949358</v>
+        <v>-0.0666115837103529</v>
       </c>
       <c r="E10">
-        <v>-0.07453586472153717</v>
+        <v>0.02334127321368215</v>
       </c>
       <c r="F10">
-        <v>-0.01589047869230229</v>
+        <v>-0.07062720786226501</v>
       </c>
       <c r="G10">
-        <v>-0.0242378766698278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.02229333298824494</v>
+      </c>
+      <c r="H10">
+        <v>0.002508202129271058</v>
+      </c>
+      <c r="I10">
+        <v>-0.1084804911363713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.05691879086320772</v>
+        <v>0.0498696551658037</v>
       </c>
       <c r="C11">
-        <v>0.009781993164541713</v>
+        <v>-0.02693235542623719</v>
       </c>
       <c r="D11">
-        <v>-0.007525676894739062</v>
+        <v>0.002868304247260416</v>
       </c>
       <c r="E11">
-        <v>-0.04326202201107033</v>
+        <v>-0.006940125645303106</v>
       </c>
       <c r="F11">
-        <v>-0.004715758282229212</v>
+        <v>-0.04055761727818211</v>
       </c>
       <c r="G11">
-        <v>-0.01881351344534718</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.006671358411143126</v>
+      </c>
+      <c r="H11">
+        <v>0.002082249886207295</v>
+      </c>
+      <c r="I11">
+        <v>0.007195781978585575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04485140368658868</v>
+        <v>0.04712022462259721</v>
       </c>
       <c r="C12">
-        <v>0.01639543057526716</v>
+        <v>-0.02160667995520962</v>
       </c>
       <c r="D12">
-        <v>-0.003720095361128909</v>
+        <v>0.01228242474145562</v>
       </c>
       <c r="E12">
-        <v>-0.03164358491602968</v>
+        <v>-0.009863828444288706</v>
       </c>
       <c r="F12">
-        <v>0.004162435472767056</v>
+        <v>-0.01840735098317484</v>
       </c>
       <c r="G12">
-        <v>0.002637777603550996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.001659692663005597</v>
+      </c>
+      <c r="H12">
+        <v>0.002900643593506585</v>
+      </c>
+      <c r="I12">
+        <v>0.01074225460736235</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06330705285515764</v>
+        <v>0.04354207976682516</v>
       </c>
       <c r="C13">
-        <v>0.02111986978548568</v>
+        <v>-0.02852919461005485</v>
       </c>
       <c r="D13">
-        <v>-0.006298102464471277</v>
+        <v>-0.00553891658241795</v>
       </c>
       <c r="E13">
-        <v>-0.109124900586255</v>
+        <v>-0.007988746925281896</v>
       </c>
       <c r="F13">
-        <v>-0.01239707286261128</v>
+        <v>-0.1044060097190586</v>
       </c>
       <c r="G13">
-        <v>-0.0006505988069145872</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.02047483036494469</v>
+      </c>
+      <c r="H13">
+        <v>0.04691167671921938</v>
+      </c>
+      <c r="I13">
+        <v>-0.01544546221890336</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03301702681809515</v>
+        <v>0.0279183623876793</v>
       </c>
       <c r="C14">
-        <v>0.01079187467778132</v>
+        <v>-0.01306320953619707</v>
       </c>
       <c r="D14">
-        <v>0.02527213083675256</v>
+        <v>0.01070863905367718</v>
       </c>
       <c r="E14">
-        <v>-0.02853523684428734</v>
+        <v>-0.02512938222535079</v>
       </c>
       <c r="F14">
-        <v>-0.009536480071477924</v>
+        <v>-0.0411663594508152</v>
       </c>
       <c r="G14">
-        <v>-0.03035499109971817</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.02971171633199697</v>
+      </c>
+      <c r="H14">
+        <v>0.052769140926621</v>
+      </c>
+      <c r="I14">
+        <v>-0.01197606515416918</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1135,45 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.04737683183907564</v>
+        <v>0.04492412152697814</v>
       </c>
       <c r="C16">
-        <v>0.02581458217284152</v>
+        <v>-0.03267574378905735</v>
       </c>
       <c r="D16">
-        <v>-0.01108049845913957</v>
+        <v>0.01154666428186943</v>
       </c>
       <c r="E16">
-        <v>-0.03550045365337321</v>
+        <v>-0.003457829394868704</v>
       </c>
       <c r="F16">
-        <v>0.007082398772009737</v>
+        <v>-0.03441368763008081</v>
       </c>
       <c r="G16">
-        <v>-0.005404497549212822</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.00527887317652243</v>
+      </c>
+      <c r="H16">
+        <v>0.008841726606185688</v>
+      </c>
+      <c r="I16">
+        <v>0.007632759619389628</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1193,16 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1222,103 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.04959011534845655</v>
+        <v>0.04764131180780481</v>
       </c>
       <c r="C19">
-        <v>0.0339950688477468</v>
+        <v>-0.03963282885607435</v>
       </c>
       <c r="D19">
-        <v>-0.002658969955260459</v>
+        <v>0.01450358606458993</v>
       </c>
       <c r="E19">
-        <v>-0.07635052678230153</v>
+        <v>-0.01627845492170239</v>
       </c>
       <c r="F19">
-        <v>0.01825819933014806</v>
+        <v>-0.08190137117569316</v>
       </c>
       <c r="G19">
-        <v>-0.02656533555428622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.01012544528064283</v>
+      </c>
+      <c r="H19">
+        <v>0.08307888044944456</v>
+      </c>
+      <c r="I19">
+        <v>-0.04049121782668413</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.03758498365502268</v>
+        <v>0.01925227316494593</v>
       </c>
       <c r="C20">
-        <v>0.03846368151546044</v>
+        <v>-0.02585886109460779</v>
       </c>
       <c r="D20">
-        <v>0.01645302803340627</v>
+        <v>0.01791308789854336</v>
       </c>
       <c r="E20">
-        <v>-0.06478301645945031</v>
+        <v>-0.01847751856546419</v>
       </c>
       <c r="F20">
-        <v>0.01462977965690187</v>
+        <v>-0.06649451452458498</v>
       </c>
       <c r="G20">
-        <v>-0.01180085172294177</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.01320881940325462</v>
+      </c>
+      <c r="H20">
+        <v>0.07095190019707398</v>
+      </c>
+      <c r="I20">
+        <v>-0.02614805223849381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03839555780269384</v>
+        <v>0.02498148841437594</v>
       </c>
       <c r="C21">
-        <v>0.02509005774874299</v>
+        <v>-0.02254494514882521</v>
       </c>
       <c r="D21">
-        <v>0.00260395802973434</v>
+        <v>0.02570510564401902</v>
       </c>
       <c r="E21">
-        <v>-0.09777257959124679</v>
+        <v>-0.00570624303787625</v>
       </c>
       <c r="F21">
-        <v>-0.0482697297147008</v>
+        <v>-0.07754851951192208</v>
       </c>
       <c r="G21">
-        <v>-0.01291146654967402</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.03552766456565823</v>
+      </c>
+      <c r="H21">
+        <v>0.0246671046248046</v>
+      </c>
+      <c r="I21">
+        <v>0.00455764286374791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1338,16 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1367,335 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.04919469606560428</v>
+        <v>0.04398612838947621</v>
       </c>
       <c r="C24">
-        <v>0.01725486683752774</v>
+        <v>-0.02157268675509303</v>
       </c>
       <c r="D24">
-        <v>-0.003654137531020948</v>
+        <v>0.006868051041087511</v>
       </c>
       <c r="E24">
-        <v>-0.04505593758528948</v>
+        <v>-0.008713899550278631</v>
       </c>
       <c r="F24">
-        <v>0.005741192854543965</v>
+        <v>-0.04104945627261287</v>
       </c>
       <c r="G24">
-        <v>0.00143270573724416</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.00429980535468717</v>
+      </c>
+      <c r="H24">
+        <v>0.007702084257008406</v>
+      </c>
+      <c r="I24">
+        <v>0.005266702656166028</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05190258153199626</v>
+        <v>0.04692731125656605</v>
       </c>
       <c r="C25">
-        <v>0.008098418332280062</v>
+        <v>-0.02171144495100606</v>
       </c>
       <c r="D25">
-        <v>-0.004972583817310466</v>
+        <v>0.005644798603413475</v>
       </c>
       <c r="E25">
-        <v>-0.04206211898405492</v>
+        <v>-0.007233651506638599</v>
       </c>
       <c r="F25">
-        <v>-0.006566661485752051</v>
+        <v>-0.04433257129691914</v>
       </c>
       <c r="G25">
-        <v>-0.007542040059488591</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.003313064774075348</v>
+      </c>
+      <c r="H25">
+        <v>-0.0001728227730639343</v>
+      </c>
+      <c r="I25">
+        <v>0.008138215432864511</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01712993281967943</v>
+        <v>0.01644281390442822</v>
       </c>
       <c r="C26">
-        <v>0.02760582299745492</v>
+        <v>-0.02472031134410008</v>
       </c>
       <c r="D26">
-        <v>0.001887162151287226</v>
+        <v>0.005800525675088845</v>
       </c>
       <c r="E26">
-        <v>-0.03442458550612544</v>
+        <v>-0.0003473830739683996</v>
       </c>
       <c r="F26">
-        <v>-0.01791983360247557</v>
+        <v>-0.04534905663003334</v>
       </c>
       <c r="G26">
-        <v>-0.02425130962250493</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.01991430381508586</v>
+      </c>
+      <c r="H26">
+        <v>0.03265583765010677</v>
+      </c>
+      <c r="I26">
+        <v>0.001129984140407942</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1173614583227791</v>
+        <v>0.08043532664416807</v>
       </c>
       <c r="C27">
-        <v>0.02851764435940959</v>
+        <v>-0.02703072248806964</v>
       </c>
       <c r="D27">
-        <v>0.02200596744747921</v>
+        <v>0.01341773156554655</v>
       </c>
       <c r="E27">
-        <v>-0.09955154132765415</v>
+        <v>-0.03257147856941091</v>
       </c>
       <c r="F27">
-        <v>-0.00961321977090665</v>
+        <v>-0.06899219148446385</v>
       </c>
       <c r="G27">
-        <v>0.009495764471058718</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.01717823206945566</v>
+      </c>
+      <c r="H27">
+        <v>0.01063077819946742</v>
+      </c>
+      <c r="I27">
+        <v>-0.02523870948558459</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.00126977504258884</v>
+        <v>0.03856489602103927</v>
       </c>
       <c r="C28">
-        <v>-0.2415538207145976</v>
+        <v>0.2172023081801651</v>
       </c>
       <c r="D28">
-        <v>-0.02996872134299396</v>
+        <v>-0.09205129258724648</v>
       </c>
       <c r="E28">
-        <v>-0.04736404852517048</v>
+        <v>0.03776565932738823</v>
       </c>
       <c r="F28">
-        <v>-0.02129648062976778</v>
+        <v>-0.05603146764091577</v>
       </c>
       <c r="G28">
-        <v>-0.004744322501306622</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02312143978379546</v>
+      </c>
+      <c r="H28">
+        <v>-0.003280753606099554</v>
+      </c>
+      <c r="I28">
+        <v>-0.1542521105534792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.02300589995517963</v>
+        <v>0.02276924883039754</v>
       </c>
       <c r="C29">
-        <v>0.01930551857609672</v>
+        <v>-0.01458773632105952</v>
       </c>
       <c r="D29">
-        <v>0.02980707484218154</v>
+        <v>0.01639608061574705</v>
       </c>
       <c r="E29">
-        <v>-0.02959666087271947</v>
+        <v>-0.0264381568935871</v>
       </c>
       <c r="F29">
-        <v>-0.01567155381266451</v>
+        <v>-0.0368891753751699</v>
       </c>
       <c r="G29">
-        <v>-0.02263250789404357</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03078208679340776</v>
+      </c>
+      <c r="H29">
+        <v>0.04951380727041378</v>
+      </c>
+      <c r="I29">
+        <v>-0.005742498420755748</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1063550576681709</v>
+        <v>0.09315139579727136</v>
       </c>
       <c r="C30">
-        <v>0.0157402241173375</v>
+        <v>-0.05546887218425201</v>
       </c>
       <c r="D30">
-        <v>0.02388982983942812</v>
+        <v>-0.02060575040783378</v>
       </c>
       <c r="E30">
-        <v>-0.1094579648739112</v>
+        <v>-0.03045026286359338</v>
       </c>
       <c r="F30">
-        <v>0.001182917403206368</v>
+        <v>-0.1031050394127831</v>
       </c>
       <c r="G30">
-        <v>-0.03359098542645372</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.0144050053997567</v>
+      </c>
+      <c r="H30">
+        <v>0.02059852522267081</v>
+      </c>
+      <c r="I30">
+        <v>0.007552504224121715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06219799366224655</v>
+        <v>0.06271588253823966</v>
       </c>
       <c r="C31">
-        <v>0.01680619533900578</v>
+        <v>-0.02275018444429034</v>
       </c>
       <c r="D31">
-        <v>0.01657602864839298</v>
+        <v>-0.003378490918504395</v>
       </c>
       <c r="E31">
-        <v>0.015765842450655</v>
+        <v>-0.02166030069592235</v>
       </c>
       <c r="F31">
-        <v>-0.01229778947028556</v>
+        <v>-0.002389962353915326</v>
       </c>
       <c r="G31">
-        <v>-0.05613934786772511</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.04178075398122182</v>
+      </c>
+      <c r="H31">
+        <v>0.03238579590959609</v>
+      </c>
+      <c r="I31">
+        <v>-0.01155316113478569</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.06766534310236196</v>
+        <v>0.04604893061555757</v>
       </c>
       <c r="C32">
-        <v>0.02832122596561116</v>
+        <v>-0.0391014363301307</v>
       </c>
       <c r="D32">
-        <v>0.008787741387264059</v>
+        <v>0.03073922126989538</v>
       </c>
       <c r="E32">
-        <v>-0.1086409922662691</v>
+        <v>-0.02694121556288479</v>
       </c>
       <c r="F32">
-        <v>0.01246132542945912</v>
+        <v>-0.088116023153687</v>
       </c>
       <c r="G32">
-        <v>-0.02266118245306314</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.01359001554536596</v>
+      </c>
+      <c r="H32">
+        <v>0.039726525820686</v>
+      </c>
+      <c r="I32">
+        <v>-0.02775897902814627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.06973474216623109</v>
+        <v>0.05887009224857365</v>
       </c>
       <c r="C33">
-        <v>0.03829856199015937</v>
+        <v>-0.05341913514464918</v>
       </c>
       <c r="D33">
-        <v>0.009455879260151684</v>
+        <v>0.0006871612220488091</v>
       </c>
       <c r="E33">
-        <v>-0.07277565607758603</v>
+        <v>-0.008313322297093886</v>
       </c>
       <c r="F33">
-        <v>-0.04454542842319837</v>
+        <v>-0.07828744672411102</v>
       </c>
       <c r="G33">
-        <v>-0.01478269207366251</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.03538566574607439</v>
+      </c>
+      <c r="H33">
+        <v>0.0373347480592616</v>
+      </c>
+      <c r="I33">
+        <v>0.00706611234843783</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0481105692710169</v>
+        <v>0.04680266977039507</v>
       </c>
       <c r="C34">
-        <v>0.01739000590074143</v>
+        <v>-0.02767330872944692</v>
       </c>
       <c r="D34">
-        <v>-0.001725975878510876</v>
+        <v>0.01434364757788676</v>
       </c>
       <c r="E34">
-        <v>-0.0270982180580475</v>
+        <v>-0.01406210109284145</v>
       </c>
       <c r="F34">
-        <v>0.00589216508128145</v>
+        <v>-0.03149847900153993</v>
       </c>
       <c r="G34">
-        <v>-0.008314462529439428</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.0002132982795025522</v>
+      </c>
+      <c r="H34">
+        <v>0.01174688666006539</v>
+      </c>
+      <c r="I34">
+        <v>0.006902346943336977</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1715,45 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01377141583530957</v>
+        <v>0.01594243508262275</v>
       </c>
       <c r="C36">
-        <v>-0.005695296196211615</v>
+        <v>-0.0001946252676353158</v>
       </c>
       <c r="D36">
-        <v>0.005088373785797</v>
+        <v>0.005001858558629594</v>
       </c>
       <c r="E36">
-        <v>-0.02394438034799382</v>
+        <v>-0.00950812656854501</v>
       </c>
       <c r="F36">
-        <v>-0.007771251365359794</v>
+        <v>-0.0287442934444081</v>
       </c>
       <c r="G36">
-        <v>-0.01797916540304867</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.02392001247453359</v>
+      </c>
+      <c r="H36">
+        <v>0.02814981335545267</v>
+      </c>
+      <c r="I36">
+        <v>0.00339266182383073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1773,219 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.05776714865344421</v>
+        <v>0.03570013345227928</v>
       </c>
       <c r="C38">
-        <v>0.01069277793191825</v>
+        <v>-0.01231807019095435</v>
       </c>
       <c r="D38">
-        <v>0.02461026683736471</v>
+        <v>0.007755418978354187</v>
       </c>
       <c r="E38">
-        <v>-0.03278178590878833</v>
+        <v>-0.01247705781703324</v>
       </c>
       <c r="F38">
-        <v>-0.002974199995698074</v>
+        <v>-0.0507829964686898</v>
       </c>
       <c r="G38">
-        <v>0.02688043604889358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.02828659551925743</v>
+      </c>
+      <c r="H38">
+        <v>0.01338317335643421</v>
+      </c>
+      <c r="I38">
+        <v>0.01123169791743506</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07372314641259896</v>
+        <v>0.05881987861732341</v>
       </c>
       <c r="C39">
-        <v>0.01381776135927044</v>
+        <v>-0.03924808294293414</v>
       </c>
       <c r="D39">
-        <v>0.001817828997202853</v>
+        <v>0.008921921078928748</v>
       </c>
       <c r="E39">
-        <v>-0.04377506010098867</v>
+        <v>-0.01563750642896174</v>
       </c>
       <c r="F39">
-        <v>-0.0173019778301078</v>
+        <v>-0.05614485390839059</v>
       </c>
       <c r="G39">
-        <v>-0.007920114948004703</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.01708793607963759</v>
+      </c>
+      <c r="H39">
+        <v>0.0008811749069065392</v>
+      </c>
+      <c r="I39">
+        <v>0.02776713888585962</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07551635853120217</v>
+        <v>0.05846735617447486</v>
       </c>
       <c r="C40">
-        <v>0.0364129747326872</v>
+        <v>-0.04563607623588306</v>
       </c>
       <c r="D40">
-        <v>0.007953835326051555</v>
+        <v>-0.005137270731815138</v>
       </c>
       <c r="E40">
-        <v>-0.1066857866080581</v>
+        <v>-0.02205019953114797</v>
       </c>
       <c r="F40">
-        <v>-0.02966596780809284</v>
+        <v>-0.09594606004583391</v>
       </c>
       <c r="G40">
-        <v>0.03693176276512602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.02257801444146891</v>
+      </c>
+      <c r="H40">
+        <v>0.05335051361101147</v>
+      </c>
+      <c r="I40">
+        <v>-0.02002566403058825</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003884892667140711</v>
+        <v>0.002972799153387919</v>
       </c>
       <c r="C41">
-        <v>0.0128993637354036</v>
+        <v>-0.009902663344042356</v>
       </c>
       <c r="D41">
-        <v>0.02341585530840397</v>
+        <v>0.005146712285954229</v>
       </c>
       <c r="E41">
-        <v>-0.01619948170463731</v>
+        <v>-0.007823159055069067</v>
       </c>
       <c r="F41">
-        <v>-0.03182235883662381</v>
+        <v>-0.01546772103719861</v>
       </c>
       <c r="G41">
-        <v>-0.02859604223224173</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.03726417193992893</v>
+      </c>
+      <c r="H41">
+        <v>0.03263489015768008</v>
+      </c>
+      <c r="I41">
+        <v>-0.02368282914021147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.1423486236415676</v>
+        <v>0.2206032593897679</v>
       </c>
       <c r="C42">
-        <v>0.2171371199195283</v>
+        <v>-0.1940886697615433</v>
       </c>
       <c r="D42">
-        <v>-0.9264265658304517</v>
+        <v>0.01515464225132117</v>
       </c>
       <c r="E42">
-        <v>0.09207241394683015</v>
+        <v>0.9281051158809268</v>
       </c>
       <c r="F42">
-        <v>0.04551845023668904</v>
+        <v>0.1491961560401781</v>
       </c>
       <c r="G42">
-        <v>-0.0773095703226391</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.00366852486452692</v>
+      </c>
+      <c r="H42">
+        <v>0.005127679293507391</v>
+      </c>
+      <c r="I42">
+        <v>-0.05329352228832759</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.00589626152551005</v>
+        <v>0.005569503143027424</v>
       </c>
       <c r="C43">
-        <v>0.01699905059683754</v>
+        <v>-0.01436658194915412</v>
       </c>
       <c r="D43">
-        <v>0.01619901503571418</v>
+        <v>0.003964242705662305</v>
       </c>
       <c r="E43">
-        <v>-0.03779498270649189</v>
+        <v>-0.008348167158605266</v>
       </c>
       <c r="F43">
-        <v>-0.007205754923002944</v>
+        <v>-0.02981093079588946</v>
       </c>
       <c r="G43">
-        <v>-0.01972054676061676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.02091323981281966</v>
+      </c>
+      <c r="H43">
+        <v>0.03188202940137395</v>
+      </c>
+      <c r="I43">
+        <v>-0.01669481217963102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04085266517435297</v>
+        <v>0.02917638764801135</v>
       </c>
       <c r="C44">
-        <v>0.04562297201975077</v>
+        <v>-0.03779819695268383</v>
       </c>
       <c r="D44">
-        <v>0.01509852764551918</v>
+        <v>0.01722094282797811</v>
       </c>
       <c r="E44">
-        <v>-0.1246025269670172</v>
+        <v>-0.009948831152625274</v>
       </c>
       <c r="F44">
-        <v>-0.08760305854083728</v>
+        <v>-0.1234686849885973</v>
       </c>
       <c r="G44">
-        <v>-0.03361117059619719</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0617515371918448</v>
+      </c>
+      <c r="H44">
+        <v>0.100689054129632</v>
+      </c>
+      <c r="I44">
+        <v>-0.02480451846692296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2005,103 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.02727089979657078</v>
+        <v>0.02574369290236143</v>
       </c>
       <c r="C46">
-        <v>0.01739578752525085</v>
+        <v>-0.03250143358601489</v>
       </c>
       <c r="D46">
-        <v>0.02868834205271692</v>
+        <v>0.01120816870342162</v>
       </c>
       <c r="E46">
-        <v>-0.02676067616346717</v>
+        <v>-0.02718598930176126</v>
       </c>
       <c r="F46">
-        <v>-0.02391311142374528</v>
+        <v>-0.04634253933756059</v>
       </c>
       <c r="G46">
-        <v>-0.02807836015051961</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.02614446087797014</v>
+      </c>
+      <c r="H46">
+        <v>0.05276541367364068</v>
+      </c>
+      <c r="I46">
+        <v>-0.003119002113786689</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08883783559302651</v>
+        <v>0.09211705371910907</v>
       </c>
       <c r="C47">
-        <v>0.01081707667982791</v>
+        <v>-0.01720628471280365</v>
       </c>
       <c r="D47">
-        <v>0.01544172205360077</v>
+        <v>-0.0008025328431201522</v>
       </c>
       <c r="E47">
-        <v>0.02084310597802435</v>
+        <v>-0.0249603193990595</v>
       </c>
       <c r="F47">
-        <v>-0.009704346336653095</v>
+        <v>0.01166573503847869</v>
       </c>
       <c r="G47">
-        <v>-0.02975217786782756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.04303845924036245</v>
+      </c>
+      <c r="H47">
+        <v>0.05656916421843213</v>
+      </c>
+      <c r="I47">
+        <v>-0.01794516596690061</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01870600272410413</v>
+        <v>0.01907507315549545</v>
       </c>
       <c r="C48">
-        <v>0.02020212590056258</v>
+        <v>-0.01793681814634284</v>
       </c>
       <c r="D48">
-        <v>0.01376275442783714</v>
+        <v>0.009138426364190076</v>
       </c>
       <c r="E48">
-        <v>-0.02848897104323986</v>
+        <v>-0.01272895987517535</v>
       </c>
       <c r="F48">
-        <v>-0.01004966933885779</v>
+        <v>-0.03051379687788822</v>
       </c>
       <c r="G48">
-        <v>-0.007004472881465689</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.0152395784045117</v>
+      </c>
+      <c r="H48">
+        <v>0.02214636357884472</v>
+      </c>
+      <c r="I48">
+        <v>-0.01364577079442904</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2121,74 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.08872499285279771</v>
+        <v>0.08892306044947272</v>
       </c>
       <c r="C50">
-        <v>0.03798276254151266</v>
+        <v>-0.03086460050492657</v>
       </c>
       <c r="D50">
-        <v>0.02396031930551861</v>
+        <v>0.02279283807209137</v>
       </c>
       <c r="E50">
-        <v>0.01234693692762197</v>
+        <v>-0.02301477517345245</v>
       </c>
       <c r="F50">
-        <v>0.0008018821201514026</v>
+        <v>0.003788593794010357</v>
       </c>
       <c r="G50">
-        <v>-0.03725680017242485</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.002072051789901242</v>
+      </c>
+      <c r="H50">
+        <v>0.04058814097108111</v>
+      </c>
+      <c r="I50">
+        <v>0.009420688804276312</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.06007538135172511</v>
+        <v>0.04482763875694129</v>
       </c>
       <c r="C51">
-        <v>-0.0260216902484069</v>
+        <v>0.0004486853172321435</v>
       </c>
       <c r="D51">
-        <v>-0.01056263966975271</v>
+        <v>-0.01571116507785832</v>
       </c>
       <c r="E51">
-        <v>-0.08477755195824038</v>
+        <v>-0.008627729841286786</v>
       </c>
       <c r="F51">
-        <v>-0.04420495719764779</v>
+        <v>-0.09332578609568726</v>
       </c>
       <c r="G51">
-        <v>-0.06361448675232129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.0519549208061395</v>
+      </c>
+      <c r="H51">
+        <v>0.05448762879007085</v>
+      </c>
+      <c r="I51">
+        <v>-0.03435180402447658</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2208,277 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1463821365199708</v>
+        <v>0.127166582276325</v>
       </c>
       <c r="C53">
-        <v>0.008745957926746283</v>
+        <v>-0.03474952323799944</v>
       </c>
       <c r="D53">
-        <v>0.04770836824586128</v>
+        <v>0.00475137231330808</v>
       </c>
       <c r="E53">
-        <v>0.04888135421556375</v>
+        <v>-0.0488024231642931</v>
       </c>
       <c r="F53">
-        <v>0.008552223482603618</v>
+        <v>0.04030830476782174</v>
       </c>
       <c r="G53">
-        <v>-0.03656841768082247</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.02297165609074279</v>
+      </c>
+      <c r="H53">
+        <v>-0.0004043201775332969</v>
+      </c>
+      <c r="I53">
+        <v>-0.03708746833719909</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02875859188276562</v>
+        <v>0.02620324578979828</v>
       </c>
       <c r="C54">
-        <v>0.00126765393674955</v>
+        <v>-0.0007103946794475445</v>
       </c>
       <c r="D54">
-        <v>0.0251726577610346</v>
+        <v>0.005117759071420776</v>
       </c>
       <c r="E54">
-        <v>-0.0353160620219559</v>
+        <v>-0.02692235303194628</v>
       </c>
       <c r="F54">
-        <v>-0.04957009888869027</v>
+        <v>-0.03815533397069279</v>
       </c>
       <c r="G54">
-        <v>-0.01536871803594917</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.05239949959662075</v>
+      </c>
+      <c r="H54">
+        <v>0.04183691056083663</v>
+      </c>
+      <c r="I54">
+        <v>-0.03034882771084553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.10078319463905</v>
+        <v>0.1013617326701994</v>
       </c>
       <c r="C55">
-        <v>-0.003966020753685623</v>
+        <v>-0.01589845508991477</v>
       </c>
       <c r="D55">
-        <v>0.03740331355420081</v>
+        <v>0.01660598895700101</v>
       </c>
       <c r="E55">
-        <v>0.01104363608173094</v>
+        <v>-0.0314382515435841</v>
       </c>
       <c r="F55">
-        <v>0.03561797482428928</v>
+        <v>0.02894800354176706</v>
       </c>
       <c r="G55">
-        <v>0.009537347699024314</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.005409914978951176</v>
+      </c>
+      <c r="H55">
+        <v>0.01507992522937583</v>
+      </c>
+      <c r="I55">
+        <v>-0.01757468619764439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1801030424194471</v>
+        <v>0.1685135221411094</v>
       </c>
       <c r="C56">
-        <v>-0.01630767002494892</v>
+        <v>-0.01404176513450318</v>
       </c>
       <c r="D56">
-        <v>0.08610861432558727</v>
+        <v>0.004340473660995368</v>
       </c>
       <c r="E56">
-        <v>0.09639514411348404</v>
+        <v>-0.08457958229958995</v>
       </c>
       <c r="F56">
-        <v>0.08071339385071657</v>
+        <v>0.08712011618199901</v>
       </c>
       <c r="G56">
-        <v>0.0005811420448905891</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.02691115510714433</v>
+      </c>
+      <c r="H56">
+        <v>-0.04107568642230212</v>
+      </c>
+      <c r="I56">
+        <v>-0.02966105534478354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.09424569911206718</v>
+        <v>0.07105235635878385</v>
       </c>
       <c r="C57">
-        <v>0.02485769097588003</v>
+        <v>-0.03754124500848786</v>
       </c>
       <c r="D57">
-        <v>0.03071044454753536</v>
+        <v>-0.005036166195187766</v>
       </c>
       <c r="E57">
-        <v>-0.03821244531524644</v>
+        <v>-0.01153556825633765</v>
       </c>
       <c r="F57">
-        <v>-0.02798845820893698</v>
+        <v>-0.06031628441365618</v>
       </c>
       <c r="G57">
-        <v>-0.04229283133498132</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.02519509100923958</v>
+      </c>
+      <c r="H57">
+        <v>0.02781120489426421</v>
+      </c>
+      <c r="I57">
+        <v>0.003890711294363466</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.1805851048234211</v>
+        <v>0.2059932604104292</v>
       </c>
       <c r="C58">
-        <v>0.02270594218534173</v>
+        <v>-0.1177591454531487</v>
       </c>
       <c r="D58">
-        <v>-0.02952116071288976</v>
+        <v>-0.05223372654505896</v>
       </c>
       <c r="E58">
-        <v>-0.1238575761986017</v>
+        <v>0.008124401498283338</v>
       </c>
       <c r="F58">
-        <v>0.06813036076377239</v>
+        <v>-0.241219906989232</v>
       </c>
       <c r="G58">
-        <v>-0.02787065025750207</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.1615613866262434</v>
+      </c>
+      <c r="H58">
+        <v>0.3622838095292836</v>
+      </c>
+      <c r="I58">
+        <v>0.1904366807562043</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.01178118724092057</v>
+        <v>0.03943748020583075</v>
       </c>
       <c r="C59">
-        <v>-0.2003055631406867</v>
+        <v>0.1750395442740079</v>
       </c>
       <c r="D59">
-        <v>0.0004925740202954309</v>
+        <v>-0.09459989399916524</v>
       </c>
       <c r="E59">
-        <v>-0.06405230869545196</v>
+        <v>0.0008670204925439217</v>
       </c>
       <c r="F59">
-        <v>-0.01032534846498754</v>
+        <v>-0.07242063048814486</v>
       </c>
       <c r="G59">
-        <v>-0.006743459281166419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.002454491742611033</v>
+      </c>
+      <c r="H59">
+        <v>-0.01863887783889838</v>
+      </c>
+      <c r="I59">
+        <v>-0.06114162469966887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1863933629931677</v>
+        <v>0.1852861696182483</v>
       </c>
       <c r="C60">
-        <v>-0.09896874966582907</v>
+        <v>0.0251823819533978</v>
       </c>
       <c r="D60">
-        <v>0.001567259574686849</v>
+        <v>-0.0664502234893229</v>
       </c>
       <c r="E60">
-        <v>-0.1872802680833165</v>
+        <v>-0.01102081190994289</v>
       </c>
       <c r="F60">
-        <v>-0.04688054352687551</v>
+        <v>-0.203165470965429</v>
       </c>
       <c r="G60">
-        <v>-0.008196446205020368</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.07968628774610431</v>
+      </c>
+      <c r="H60">
+        <v>-0.2717983278561103</v>
+      </c>
+      <c r="I60">
+        <v>0.09651249623657356</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.05124944570180817</v>
+        <v>0.0403886611011409</v>
       </c>
       <c r="C61">
-        <v>0.003424606572174492</v>
+        <v>-0.02327088835477883</v>
       </c>
       <c r="D61">
-        <v>-0.002405049493388565</v>
+        <v>0.00949430461443674</v>
       </c>
       <c r="E61">
-        <v>-0.03980147654952599</v>
+        <v>-0.005494797348360689</v>
       </c>
       <c r="F61">
-        <v>-0.004802209570038947</v>
+        <v>-0.03928780743962248</v>
       </c>
       <c r="G61">
-        <v>-0.004232685447026063</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.009114352742514712</v>
+      </c>
+      <c r="H61">
+        <v>-0.001948210141598588</v>
+      </c>
+      <c r="I61">
+        <v>0.03330907587084125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2498,219 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.04757705013806136</v>
+        <v>0.03131280603820532</v>
       </c>
       <c r="C63">
-        <v>0.003959648228555998</v>
+        <v>-0.01726959502729307</v>
       </c>
       <c r="D63">
-        <v>0.01739931206318418</v>
+        <v>0.005432898044993721</v>
       </c>
       <c r="E63">
-        <v>-0.03705618002291124</v>
+        <v>-0.0130053041941917</v>
       </c>
       <c r="F63">
-        <v>-0.003121033355407742</v>
+        <v>-0.02895879362230529</v>
       </c>
       <c r="G63">
-        <v>-0.02685125292161827</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01157614585870013</v>
+      </c>
+      <c r="H63">
+        <v>0.05051786437588725</v>
+      </c>
+      <c r="I63">
+        <v>-0.03743575936110013</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.08194875317318578</v>
+        <v>0.05769672534420121</v>
       </c>
       <c r="C64">
-        <v>0.04591171147779225</v>
+        <v>-0.03948799715007328</v>
       </c>
       <c r="D64">
-        <v>0.06213713440432019</v>
+        <v>0.03117033005033456</v>
       </c>
       <c r="E64">
-        <v>-0.06288879109667948</v>
+        <v>-0.04259208259947598</v>
       </c>
       <c r="F64">
-        <v>-0.05863530436402405</v>
+        <v>-0.05100729761292718</v>
       </c>
       <c r="G64">
-        <v>0.02730398301248029</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.0532071015294887</v>
+      </c>
+      <c r="H64">
+        <v>-0.005693333339527176</v>
+      </c>
+      <c r="I64">
+        <v>-0.03783409963274956</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01984952387089509</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007603666566337159</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.01009437595018599</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.005666654618817291</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.001125094869029814</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.02157769181926912</v>
+      </c>
+      <c r="H65">
+        <v>-0.00241471993991184</v>
+      </c>
+      <c r="I65">
+        <v>0.01400335367412308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.09224254377269575</v>
+        <v>0.06983128878715374</v>
       </c>
       <c r="C66">
-        <v>0.02725779802627355</v>
+        <v>-0.05511267072697491</v>
       </c>
       <c r="D66">
-        <v>0.03496647814450342</v>
+        <v>0.006819121193207485</v>
       </c>
       <c r="E66">
-        <v>-0.08055762536893007</v>
+        <v>-0.04397202635453051</v>
       </c>
       <c r="F66">
-        <v>-0.03971693992281881</v>
+        <v>-0.07030274547100088</v>
       </c>
       <c r="G66">
-        <v>-0.0170794526762763</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.01476893215024341</v>
+      </c>
+      <c r="H66">
+        <v>-0.000540489871484265</v>
+      </c>
+      <c r="I66">
+        <v>0.0349023062649999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.06448923189349696</v>
+        <v>0.04730111055061462</v>
       </c>
       <c r="C67">
-        <v>-0.01347514442610161</v>
+        <v>0.002746566491728787</v>
       </c>
       <c r="D67">
-        <v>0.01219224917292906</v>
+        <v>-0.003341117979233063</v>
       </c>
       <c r="E67">
-        <v>-0.02752514809869668</v>
+        <v>-0.01028096567639691</v>
       </c>
       <c r="F67">
-        <v>-0.006711490968064909</v>
+        <v>-0.0397255787228284</v>
       </c>
       <c r="G67">
-        <v>0.03729935711224323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.0350064526966565</v>
+      </c>
+      <c r="H67">
+        <v>-0.008817725612551374</v>
+      </c>
+      <c r="I67">
+        <v>0.03795895739695969</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.0112798065966634</v>
+        <v>0.04553744938449886</v>
       </c>
       <c r="C68">
-        <v>-0.2467632482135519</v>
+        <v>0.2137785008334257</v>
       </c>
       <c r="D68">
-        <v>-0.01941888854763381</v>
+        <v>-0.1074880573788467</v>
       </c>
       <c r="E68">
-        <v>-0.0457550677752049</v>
+        <v>0.01565723641123037</v>
       </c>
       <c r="F68">
-        <v>-0.004470939767275031</v>
+        <v>-0.05501292658946556</v>
       </c>
       <c r="G68">
-        <v>-0.02520058222567209</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.002932603250077017</v>
+      </c>
+      <c r="H68">
+        <v>-0.01398561722624946</v>
+      </c>
+      <c r="I68">
+        <v>-0.1630999380086925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07401090908289668</v>
+        <v>0.07265009246264743</v>
       </c>
       <c r="C69">
-        <v>0.01235292300492335</v>
+        <v>-0.02126678083681855</v>
       </c>
       <c r="D69">
-        <v>0.02303398034331587</v>
+        <v>0.001086319895556427</v>
       </c>
       <c r="E69">
-        <v>0.01836071235108886</v>
+        <v>-0.03078940387572729</v>
       </c>
       <c r="F69">
-        <v>1.224300719332327e-06</v>
+        <v>0.001757798831518375</v>
       </c>
       <c r="G69">
-        <v>-0.02924531073639083</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.02715524901161758</v>
+      </c>
+      <c r="H69">
+        <v>0.02729380805263875</v>
+      </c>
+      <c r="I69">
+        <v>0.002647046106359808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2730,248 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.01130054953115814</v>
+        <v>0.0513141145926989</v>
       </c>
       <c r="C71">
-        <v>-0.275450385038455</v>
+        <v>0.2246670562473939</v>
       </c>
       <c r="D71">
-        <v>-0.02446464435345359</v>
+        <v>-0.1201767930045521</v>
       </c>
       <c r="E71">
-        <v>-0.08173527871579009</v>
+        <v>0.03590939439234262</v>
       </c>
       <c r="F71">
-        <v>-0.01252649902250503</v>
+        <v>-0.07826611211274094</v>
       </c>
       <c r="G71">
-        <v>-0.03344606276862525</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.01228417107797769</v>
+      </c>
+      <c r="H71">
+        <v>-0.02783712559069959</v>
+      </c>
+      <c r="I71">
+        <v>-0.1281381514980003</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1165309992604464</v>
+        <v>0.1243156068915367</v>
       </c>
       <c r="C72">
-        <v>-0.008191355132024963</v>
+        <v>-0.0282810761750726</v>
       </c>
       <c r="D72">
-        <v>0.04565140727641909</v>
+        <v>0.001038915625380464</v>
       </c>
       <c r="E72">
-        <v>-0.09822709735730414</v>
+        <v>-0.0602053231798901</v>
       </c>
       <c r="F72">
-        <v>0.01334913096463227</v>
+        <v>-0.08324871780590597</v>
       </c>
       <c r="G72">
-        <v>0.01955552764773672</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.03950329988097689</v>
+      </c>
+      <c r="H72">
+        <v>-0.01408484934033559</v>
+      </c>
+      <c r="I72">
+        <v>0.07320056399114795</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2828722977084488</v>
+        <v>0.2694599397423339</v>
       </c>
       <c r="C73">
-        <v>-0.1685282429901558</v>
+        <v>0.04563997989759624</v>
       </c>
       <c r="D73">
-        <v>-0.05273924597043363</v>
+        <v>-0.1238130779939843</v>
       </c>
       <c r="E73">
-        <v>-0.3335967109883059</v>
+        <v>0.03203804242013088</v>
       </c>
       <c r="F73">
-        <v>-0.0332020048320435</v>
+        <v>-0.3051909201548063</v>
       </c>
       <c r="G73">
-        <v>0.0258473639471254</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.1829516984878799</v>
+      </c>
+      <c r="H73">
+        <v>-0.4711494375390874</v>
+      </c>
+      <c r="I73">
+        <v>0.2833575068839676</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.16279933866166</v>
+        <v>0.1518248009394366</v>
       </c>
       <c r="C74">
-        <v>-0.004314402831816432</v>
+        <v>-0.02540756423537865</v>
       </c>
       <c r="D74">
-        <v>0.04301908748008578</v>
+        <v>-0.00652103248915023</v>
       </c>
       <c r="E74">
-        <v>0.01881361409331335</v>
+        <v>-0.04729223276303356</v>
       </c>
       <c r="F74">
-        <v>0.06029465436905567</v>
+        <v>0.05364803148353571</v>
       </c>
       <c r="G74">
-        <v>-0.04904371807040492</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.01717211611059061</v>
+      </c>
+      <c r="H74">
+        <v>-0.02611182611955252</v>
+      </c>
+      <c r="I74">
+        <v>-0.01895898138820845</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.234811326989319</v>
+        <v>0.242733637171542</v>
       </c>
       <c r="C75">
-        <v>-0.01292842213615424</v>
+        <v>-0.02431202259378264</v>
       </c>
       <c r="D75">
-        <v>0.06795640988133733</v>
+        <v>-0.02263914215702881</v>
       </c>
       <c r="E75">
-        <v>0.1216759382764747</v>
+        <v>-0.1051631214921489</v>
       </c>
       <c r="F75">
-        <v>0.03842672221266059</v>
+        <v>0.1470112260412703</v>
       </c>
       <c r="G75">
-        <v>-0.04503164758523088</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.006255832458153986</v>
+      </c>
+      <c r="H75">
+        <v>-0.01591777124053469</v>
+      </c>
+      <c r="I75">
+        <v>-0.0905261814113504</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2442918671687194</v>
+        <v>0.2659069423396412</v>
       </c>
       <c r="C76">
-        <v>-0.01872681835260585</v>
+        <v>-0.008780311708983725</v>
       </c>
       <c r="D76">
-        <v>0.1121672421451875</v>
+        <v>0.0120677979437215</v>
       </c>
       <c r="E76">
-        <v>0.1304213925296812</v>
+        <v>-0.1283075100179493</v>
       </c>
       <c r="F76">
-        <v>0.07810574592159303</v>
+        <v>0.1816917899862136</v>
       </c>
       <c r="G76">
-        <v>-0.03764645383248624</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.05154475697919251</v>
+      </c>
+      <c r="H76">
+        <v>-0.04181329250915888</v>
+      </c>
+      <c r="I76">
+        <v>-0.02695550344351698</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1432201190654913</v>
+        <v>0.1288687393503965</v>
       </c>
       <c r="C77">
-        <v>0.03485102611041781</v>
+        <v>-0.06283164133545771</v>
       </c>
       <c r="D77">
-        <v>-0.043924485794611</v>
+        <v>0.01368787372330536</v>
       </c>
       <c r="E77">
-        <v>-0.140258334411873</v>
+        <v>0.03384722613233008</v>
       </c>
       <c r="F77">
-        <v>-0.01912710065658312</v>
+        <v>-0.1610385202822008</v>
       </c>
       <c r="G77">
-        <v>0.05052336466611745</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.002128264233498205</v>
+      </c>
+      <c r="H77">
+        <v>0.2243175727741648</v>
+      </c>
+      <c r="I77">
+        <v>-0.2155243440397298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.08672801357085123</v>
+        <v>0.08198943865431868</v>
       </c>
       <c r="C78">
-        <v>0.04451214305729222</v>
+        <v>-0.06735752206450997</v>
       </c>
       <c r="D78">
-        <v>-0.01541772493881715</v>
+        <v>0.03220482423854672</v>
       </c>
       <c r="E78">
-        <v>-0.04889659033241652</v>
+        <v>-0.007656955948014708</v>
       </c>
       <c r="F78">
-        <v>-0.007899071512249705</v>
+        <v>-0.07347471349037217</v>
       </c>
       <c r="G78">
-        <v>-0.01377300792068533</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.01276340914612974</v>
+      </c>
+      <c r="H78">
+        <v>0.02467855197905769</v>
+      </c>
+      <c r="I78">
+        <v>-0.02963166030034877</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2991,74 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.06598932762730932</v>
+        <v>0.1491472625996823</v>
       </c>
       <c r="C80">
-        <v>0.01852671445156681</v>
+        <v>0.4178076256572487</v>
       </c>
       <c r="D80">
-        <v>-0.03202370360889069</v>
+        <v>0.8786815920750352</v>
       </c>
       <c r="E80">
-        <v>0.03169152964443382</v>
+        <v>0.05624360538789844</v>
       </c>
       <c r="F80">
-        <v>0.130670095092939</v>
+        <v>-0.05062319528257762</v>
       </c>
       <c r="G80">
-        <v>0.9406333768703382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.04320152473884713</v>
+      </c>
+      <c r="H80">
+        <v>-0.05644680665795164</v>
+      </c>
+      <c r="I80">
+        <v>0.03343699061821986</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1662559302923976</v>
+        <v>0.178925235030013</v>
       </c>
       <c r="C81">
-        <v>-0.01406001432373531</v>
+        <v>-0.005696687105951679</v>
       </c>
       <c r="D81">
-        <v>0.06387448428420819</v>
+        <v>-0.006089062946184509</v>
       </c>
       <c r="E81">
-        <v>0.1604093492175466</v>
+        <v>-0.08576127305817563</v>
       </c>
       <c r="F81">
-        <v>0.1019012945438078</v>
+        <v>0.1624400987406527</v>
       </c>
       <c r="G81">
-        <v>-0.03656228711738015</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.02875915925106565</v>
+      </c>
+      <c r="H81">
+        <v>-0.007039512713538297</v>
+      </c>
+      <c r="I81">
+        <v>-0.05533759958406474</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3078,45 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09471618801916708</v>
+        <v>0.06928172524403657</v>
       </c>
       <c r="C83">
-        <v>0.05031892714461524</v>
+        <v>-0.05013772873616607</v>
       </c>
       <c r="D83">
-        <v>-0.07181880925827097</v>
+        <v>0.005003000044980451</v>
       </c>
       <c r="E83">
-        <v>-0.008444571996248632</v>
+        <v>0.03797620142564347</v>
       </c>
       <c r="F83">
-        <v>-0.0568795753965812</v>
+        <v>-0.04539806891629752</v>
       </c>
       <c r="G83">
-        <v>-0.02189891797840125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.059407014894574</v>
+      </c>
+      <c r="H83">
+        <v>0.02257723267236857</v>
+      </c>
+      <c r="I83">
+        <v>-0.02970301382511914</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3136,335 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2334492681881434</v>
+        <v>0.250487346382474</v>
       </c>
       <c r="C85">
-        <v>0.04655682246847053</v>
+        <v>-0.04806051059053605</v>
       </c>
       <c r="D85">
-        <v>0.06476856223851485</v>
+        <v>0.01105223862156257</v>
       </c>
       <c r="E85">
-        <v>0.1587872464084517</v>
+        <v>-0.08991004842168128</v>
       </c>
       <c r="F85">
-        <v>0.05844464700882495</v>
+        <v>0.1849700000638224</v>
       </c>
       <c r="G85">
-        <v>-0.01717196225697085</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.002859701335098506</v>
+      </c>
+      <c r="H85">
+        <v>0.02264792674770392</v>
+      </c>
+      <c r="I85">
+        <v>-0.05127452771836305</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04220130992400478</v>
+        <v>0.02740062422580123</v>
       </c>
       <c r="C86">
-        <v>0.05039037124578239</v>
+        <v>-0.06067131252284005</v>
       </c>
       <c r="D86">
-        <v>0.01711194960050261</v>
+        <v>0.02647174340508155</v>
       </c>
       <c r="E86">
-        <v>-0.06422752150387534</v>
+        <v>-0.0115063039469699</v>
       </c>
       <c r="F86">
-        <v>0.002749951941178772</v>
+        <v>-0.06876474248235327</v>
       </c>
       <c r="G86">
-        <v>-0.02891667909249835</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.006267429385665131</v>
+      </c>
+      <c r="H86">
+        <v>0.06515344467857291</v>
+      </c>
+      <c r="I86">
+        <v>-0.03071316247919376</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.0274980383614836</v>
+        <v>0.03641244429630677</v>
       </c>
       <c r="C87">
-        <v>-0.05033358458586443</v>
+        <v>0.009812352163099482</v>
       </c>
       <c r="D87">
-        <v>-0.0001465477850163473</v>
+        <v>-0.009488720959271611</v>
       </c>
       <c r="E87">
-        <v>-0.09200539258835112</v>
+        <v>-0.004572204083148992</v>
       </c>
       <c r="F87">
-        <v>0.02490187804318077</v>
+        <v>-0.100911895047594</v>
       </c>
       <c r="G87">
-        <v>-0.02262646497381973</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.02331973530670542</v>
+      </c>
+      <c r="H87">
+        <v>0.01508327675295043</v>
+      </c>
+      <c r="I87">
+        <v>0.0202133436459802</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03839160497835926</v>
+        <v>0.02959131690289998</v>
       </c>
       <c r="C88">
-        <v>0.03096194173683035</v>
+        <v>-0.01458733905642441</v>
       </c>
       <c r="D88">
-        <v>0.00666823848757437</v>
+        <v>0.01871454017756692</v>
       </c>
       <c r="E88">
-        <v>0.01166495044749903</v>
+        <v>-0.01439092940481743</v>
       </c>
       <c r="F88">
-        <v>0.01355916100342792</v>
+        <v>0.01385244200353717</v>
       </c>
       <c r="G88">
-        <v>-0.004926565280338241</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.03604036293358063</v>
+      </c>
+      <c r="H88">
+        <v>0.03723261880285642</v>
+      </c>
+      <c r="I88">
+        <v>0.02043476429623085</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>9.104365962717786e-05</v>
+        <v>0.06471904885926957</v>
       </c>
       <c r="C89">
-        <v>-0.4120319002108377</v>
+        <v>0.3454897043149686</v>
       </c>
       <c r="D89">
-        <v>-0.1101410213598776</v>
+        <v>-0.1917966448733327</v>
       </c>
       <c r="E89">
-        <v>-0.0001890266495913889</v>
+        <v>0.05759073172735961</v>
       </c>
       <c r="F89">
-        <v>-0.01390105353416604</v>
+        <v>-0.0385837317156624</v>
       </c>
       <c r="G89">
-        <v>-0.0451697060638432</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.04019674804820936</v>
+      </c>
+      <c r="H89">
+        <v>0.05048811765316913</v>
+      </c>
+      <c r="I89">
+        <v>-0.2597881372280108</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.006322232208156159</v>
+        <v>0.04617027016802949</v>
       </c>
       <c r="C90">
-        <v>-0.3074367142896254</v>
+        <v>0.3013896434143221</v>
       </c>
       <c r="D90">
-        <v>-0.04850689357258015</v>
+        <v>-0.1485271330246547</v>
       </c>
       <c r="E90">
-        <v>-0.04330171123171686</v>
+        <v>0.04156316287473975</v>
       </c>
       <c r="F90">
-        <v>-0.01635522817861722</v>
+        <v>-0.03546652079283701</v>
       </c>
       <c r="G90">
-        <v>-0.04361642720878687</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.02140912382245781</v>
+      </c>
+      <c r="H90">
+        <v>0.00986212253341848</v>
+      </c>
+      <c r="I90">
+        <v>-0.2274477740848907</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2809653048061645</v>
+        <v>0.297849886421472</v>
       </c>
       <c r="C91">
-        <v>0.02234200560540952</v>
+        <v>-0.039596754316531</v>
       </c>
       <c r="D91">
-        <v>0.07833327064837331</v>
+        <v>-0.003772175999222734</v>
       </c>
       <c r="E91">
-        <v>0.2885424530550798</v>
+        <v>-0.08918311125674347</v>
       </c>
       <c r="F91">
-        <v>0.1022327755043835</v>
+        <v>0.290959600186074</v>
       </c>
       <c r="G91">
-        <v>0.0149849926750787</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.02293467908741725</v>
+      </c>
+      <c r="H91">
+        <v>-0.005636763239211484</v>
+      </c>
+      <c r="I91">
+        <v>-0.1142550079651271</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.01424966109504531</v>
+        <v>0.1015051899888689</v>
       </c>
       <c r="C92">
-        <v>-0.4149255925250427</v>
+        <v>0.4019543735634343</v>
       </c>
       <c r="D92">
-        <v>-0.1711817492838523</v>
+        <v>-0.1711450215032098</v>
       </c>
       <c r="E92">
-        <v>0.1276704420788254</v>
+        <v>0.07816002409848878</v>
       </c>
       <c r="F92">
-        <v>0.06645179565248414</v>
+        <v>0.1172579935654778</v>
       </c>
       <c r="G92">
-        <v>0.1382757748295502</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.0886095920735806</v>
+      </c>
+      <c r="H92">
+        <v>0.4366801442257604</v>
+      </c>
+      <c r="I92">
+        <v>0.6716042189667321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.01200760386983642</v>
+        <v>0.05065333561498361</v>
       </c>
       <c r="C93">
-        <v>-0.3740235785630062</v>
+        <v>0.3598780509866068</v>
       </c>
       <c r="D93">
-        <v>-0.08295011043730896</v>
+        <v>-0.1927869074704049</v>
       </c>
       <c r="E93">
-        <v>0.02435326166562891</v>
+        <v>0.07368679696720756</v>
       </c>
       <c r="F93">
-        <v>0.004042774513613951</v>
+        <v>-0.004566795957648901</v>
       </c>
       <c r="G93">
-        <v>0.03303403081562342</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.03438515412547277</v>
+      </c>
+      <c r="H93">
+        <v>-0.02020021909804673</v>
+      </c>
+      <c r="I93">
+        <v>-0.1604475588824511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2710005851333506</v>
+        <v>0.3056061183053041</v>
       </c>
       <c r="C94">
-        <v>-0.07656006034871368</v>
+        <v>-7.901586523191282e-05</v>
       </c>
       <c r="D94">
-        <v>0.04545337221348981</v>
+        <v>-0.04595845535192232</v>
       </c>
       <c r="E94">
-        <v>0.3494920730653079</v>
+        <v>-0.1304245967374715</v>
       </c>
       <c r="F94">
-        <v>0.4059718341556303</v>
+        <v>0.3437259581581495</v>
       </c>
       <c r="G94">
-        <v>-0.1184467226435221</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.2079020339550839</v>
+      </c>
+      <c r="H94">
+        <v>0.1320603186534043</v>
+      </c>
+      <c r="I94">
+        <v>-0.02283353190554738</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.201239392830483</v>
+        <v>0.1319700231563468</v>
       </c>
       <c r="C95">
-        <v>-0.03240164051934245</v>
+        <v>-0.07336074248219682</v>
       </c>
       <c r="D95">
-        <v>-0.003995404541517059</v>
+        <v>-0.07437446474599425</v>
       </c>
       <c r="E95">
-        <v>0.377535418460947</v>
+        <v>-0.03660213806566164</v>
       </c>
       <c r="F95">
-        <v>-0.8416145521309837</v>
+        <v>0.07116059415637815</v>
       </c>
       <c r="G95">
-        <v>0.08934912119121435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.8954750797865005</v>
+      </c>
+      <c r="H95">
+        <v>-0.1804082438981186</v>
+      </c>
+      <c r="I95">
+        <v>0.1133913049035671</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3484,16 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3513,45 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2246423428153843</v>
+        <v>0.2097292662300186</v>
       </c>
       <c r="C98">
-        <v>-0.1239066399524647</v>
+        <v>0.03489158764664133</v>
       </c>
       <c r="D98">
-        <v>-0.0533420669764765</v>
+        <v>-0.08840918379239972</v>
       </c>
       <c r="E98">
-        <v>-0.09036830485822046</v>
+        <v>0.03039223323869615</v>
       </c>
       <c r="F98">
-        <v>-0.04285727503941562</v>
+        <v>-0.1576265622734842</v>
       </c>
       <c r="G98">
-        <v>-0.046787399387459</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.08647091405647822</v>
+      </c>
+      <c r="H98">
+        <v>-0.3248621962971524</v>
+      </c>
+      <c r="I98">
+        <v>0.1574900530361543</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3571,16 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3600,103 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.02272846253679183</v>
+        <v>0.01662072536339792</v>
       </c>
       <c r="C101">
-        <v>0.01968119031301776</v>
+        <v>-0.02659523849357598</v>
       </c>
       <c r="D101">
-        <v>0.03130707503521173</v>
+        <v>0.01726960858395548</v>
       </c>
       <c r="E101">
-        <v>-0.0301303748819793</v>
+        <v>-0.03354182399309166</v>
       </c>
       <c r="F101">
-        <v>-0.01552176147278093</v>
+        <v>-0.06685678177576578</v>
       </c>
       <c r="G101">
-        <v>-0.0226792606383108</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.01755596053455706</v>
+      </c>
+      <c r="H101">
+        <v>0.1093568217468898</v>
+      </c>
+      <c r="I101">
+        <v>0.04808338703853868</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1206861211892179</v>
+        <v>0.1201366226675438</v>
       </c>
       <c r="C102">
-        <v>0.01210442663828629</v>
+        <v>-0.02046909631815222</v>
       </c>
       <c r="D102">
-        <v>0.04007072217402052</v>
+        <v>0.01092160440748341</v>
       </c>
       <c r="E102">
-        <v>0.08641127082326333</v>
+        <v>-0.05286060833261506</v>
       </c>
       <c r="F102">
-        <v>0.005976792568172356</v>
+        <v>0.09665704904407954</v>
       </c>
       <c r="G102">
-        <v>0.01053124198572495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.01712828068473617</v>
+      </c>
+      <c r="H102">
+        <v>-0.01918476883542882</v>
+      </c>
+      <c r="I102">
+        <v>-0.05290012775462462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.01952813852313015</v>
+        <v>0.03246515107408086</v>
       </c>
       <c r="C103">
-        <v>0.00038345697690843</v>
+        <v>-0.003445060377178322</v>
       </c>
       <c r="D103">
-        <v>0.01350344240702758</v>
+        <v>0.01004746889818937</v>
       </c>
       <c r="E103">
-        <v>0.03103822346105941</v>
+        <v>-0.02184949105951436</v>
       </c>
       <c r="F103">
-        <v>0.01356205697621046</v>
+        <v>0.02938900296089179</v>
       </c>
       <c r="G103">
-        <v>-0.01441226529401843</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>0.0133990932708148</v>
+      </c>
+      <c r="H103">
+        <v>0.01572343252200052</v>
+      </c>
+      <c r="I103">
+        <v>-0.03335435013173123</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +3714,12 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
